--- a/data/Forecast (MtCO2e).xlsx
+++ b/data/Forecast (MtCO2e).xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ArcelorMittal - ARIMA</t>
+          <t>ArcelorMittal - Moving Average</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CBA - ARIMA</t>
+          <t>CBA - Moving Average</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Intercement - ARIMA</t>
+          <t>Intercement - Moving Average</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Suzano - ARIMA</t>
+          <t>Suzano - Moving Average</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Ternium Brasil - ARIMA</t>
+          <t>Ternium Brasil - Moving Average</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Votorantim - ARIMA</t>
+          <t>Votorantim - Moving Average</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -538,7 +538,7 @@
         <v>2024</v>
       </c>
       <c r="C2" t="n">
-        <v>29.12949986009055</v>
+        <v>25.95719512</v>
       </c>
       <c r="D2" t="n">
         <v>20.92355725079597</v>
@@ -547,7 +547,7 @@
         <v>27.29200824285681</v>
       </c>
       <c r="F2" t="n">
-        <v>2.986370311946367</v>
+        <v>2.96526779</v>
       </c>
       <c r="G2" t="n">
         <v>2.704934933759235</v>
@@ -556,7 +556,7 @@
         <v>3.764461141428569</v>
       </c>
       <c r="I2" t="n">
-        <v>1.570868117954668</v>
+        <v>1.58954996</v>
       </c>
       <c r="J2" t="n">
         <v>1.526786840197809</v>
@@ -565,7 +565,7 @@
         <v>1.377435722545457</v>
       </c>
       <c r="L2" t="n">
-        <v>3.99523602845708</v>
+        <v>4.06737169</v>
       </c>
       <c r="M2" t="n">
         <v>3.789454502734576</v>
@@ -574,7 +574,7 @@
         <v>4.139435329750029</v>
       </c>
       <c r="O2" t="n">
-        <v>11.5710373110678</v>
+        <v>12.039497385</v>
       </c>
       <c r="P2" t="n">
         <v>11.90716161462806</v>
@@ -583,7 +583,7 @@
         <v>12.26416456254543</v>
       </c>
       <c r="R2" t="n">
-        <v>14.75594914570204</v>
+        <v>15.25076795</v>
       </c>
       <c r="S2" t="n">
         <v>14.73401299497481</v>
@@ -600,7 +600,7 @@
         <v>2025</v>
       </c>
       <c r="C3" t="n">
-        <v>29.84634805338145</v>
+        <v>25.95719512</v>
       </c>
       <c r="D3" t="n">
         <v>20.26829209177487</v>
@@ -609,7 +609,7 @@
         <v>29.03087967214287</v>
       </c>
       <c r="F3" t="n">
-        <v>2.10999394298152</v>
+        <v>2.96526779</v>
       </c>
       <c r="G3" t="n">
         <v>2.61768621408206</v>
@@ -618,7 +618,7 @@
         <v>4.048729442857166</v>
       </c>
       <c r="I3" t="n">
-        <v>1.50134252764641</v>
+        <v>1.58954996</v>
       </c>
       <c r="J3" t="n">
         <v>1.522038761107034</v>
@@ -627,7 +627,7 @@
         <v>1.356678510090909</v>
       </c>
       <c r="L3" t="n">
-        <v>3.384673201787213</v>
+        <v>4.06737169</v>
       </c>
       <c r="M3" t="n">
         <v>3.541344375969714</v>
@@ -636,7 +636,7 @@
         <v>4.37238915177943</v>
       </c>
       <c r="O3" t="n">
-        <v>11.57324371026601</v>
+        <v>12.039497385</v>
       </c>
       <c r="P3" t="n">
         <v>11.87943608221425</v>
@@ -645,7 +645,7 @@
         <v>12.45049382736363</v>
       </c>
       <c r="R3" t="n">
-        <v>14.05284675013384</v>
+        <v>15.25076795</v>
       </c>
       <c r="S3" t="n">
         <v>14.45871322888302</v>
@@ -662,7 +662,7 @@
         <v>2026</v>
       </c>
       <c r="C4" t="n">
-        <v>27.19770480329573</v>
+        <v>25.95719512</v>
       </c>
       <c r="D4" t="n">
         <v>19.944908636835</v>
@@ -671,7 +671,7 @@
         <v>30.76975110142848</v>
       </c>
       <c r="F4" t="n">
-        <v>2.105443584109115</v>
+        <v>2.96526779</v>
       </c>
       <c r="G4" t="n">
         <v>2.564327813550465</v>
@@ -680,7 +680,7 @@
         <v>4.332997744285763</v>
       </c>
       <c r="I4" t="n">
-        <v>1.397020982379768</v>
+        <v>1.58954996</v>
       </c>
       <c r="J4" t="n">
         <v>1.51799653067943</v>
@@ -689,7 +689,7 @@
         <v>1.335921297636368</v>
       </c>
       <c r="L4" t="n">
-        <v>3.154537075931063</v>
+        <v>4.06737169</v>
       </c>
       <c r="M4" t="n">
         <v>3.301737580393696</v>
@@ -698,7 +698,7 @@
         <v>4.605342973808831</v>
       </c>
       <c r="O4" t="n">
-        <v>10.52598152401078</v>
+        <v>12.039497385</v>
       </c>
       <c r="P4" t="n">
         <v>11.77646804595039</v>
@@ -707,7 +707,7 @@
         <v>12.63682309218177</v>
       </c>
       <c r="R4" t="n">
-        <v>13.90082685767732</v>
+        <v>15.25076795</v>
       </c>
       <c r="S4" t="n">
         <v>14.32460317034748</v>
@@ -724,7 +724,7 @@
         <v>2027</v>
       </c>
       <c r="C5" t="n">
-        <v>23.15712651806631</v>
+        <v>25.95719512</v>
       </c>
       <c r="D5" t="n">
         <v>19.85106849898576</v>
@@ -733,7 +733,7 @@
         <v>32.50862253071409</v>
       </c>
       <c r="F5" t="n">
-        <v>2.343976539698003</v>
+        <v>2.96526779</v>
       </c>
       <c r="G5" t="n">
         <v>2.544528740240489</v>
@@ -742,7 +742,7 @@
         <v>4.617266045714359</v>
       </c>
       <c r="I5" t="n">
-        <v>1.32353052939772</v>
+        <v>1.58954996</v>
       </c>
       <c r="J5" t="n">
         <v>1.515874394559051</v>
@@ -751,7 +751,7 @@
         <v>1.31516408518182</v>
       </c>
       <c r="L5" t="n">
-        <v>2.985650826819574</v>
+        <v>4.06737169</v>
       </c>
       <c r="M5" t="n">
         <v>3.106886126734189</v>
@@ -760,7 +760,7 @@
         <v>4.838296795838232</v>
       </c>
       <c r="O5" t="n">
-        <v>11.40454577675372</v>
+        <v>12.039497385</v>
       </c>
       <c r="P5" t="n">
         <v>11.67136158998939</v>
@@ -769,7 +769,7 @@
         <v>12.82315235699997</v>
       </c>
       <c r="R5" t="n">
-        <v>14.68960856102517</v>
+        <v>15.25076795</v>
       </c>
       <c r="S5" t="n">
         <v>14.28467862103926</v>
@@ -786,7 +786,7 @@
         <v>2028</v>
       </c>
       <c r="C6" t="n">
-        <v>19.0862042397044</v>
+        <v>25.95719512</v>
       </c>
       <c r="D6" t="n">
         <v>19.83468094473227</v>
@@ -795,7 +795,7 @@
         <v>34.2474939599997</v>
       </c>
       <c r="F6" t="n">
-        <v>2.661683642147125</v>
+        <v>2.96526779</v>
       </c>
       <c r="G6" t="n">
         <v>2.540444920765542</v>
@@ -804,7 +804,7 @@
         <v>4.901534347142842</v>
       </c>
       <c r="I6" t="n">
-        <v>1.312792755490855</v>
+        <v>1.58954996</v>
       </c>
       <c r="J6" t="n">
         <v>1.515054366124693</v>
@@ -813,7 +813,7 @@
         <v>1.294406872727272</v>
       </c>
       <c r="L6" t="n">
-        <v>2.852211376012711</v>
+        <v>4.06737169</v>
       </c>
       <c r="M6" t="n">
         <v>2.968324397539059</v>
@@ -822,7 +822,7 @@
         <v>5.071250617867634</v>
       </c>
       <c r="O6" t="n">
-        <v>10.72445553146188</v>
+        <v>12.039497385</v>
       </c>
       <c r="P6" t="n">
         <v>11.60077717752098</v>
@@ -831,7 +831,7 @@
         <v>13.00948162181817</v>
       </c>
       <c r="R6" t="n">
-        <v>14.2902498152831</v>
+        <v>15.25076795</v>
       </c>
       <c r="S6" t="n">
         <v>14.27810037595012</v>
@@ -848,7 +848,7 @@
         <v>2029</v>
       </c>
       <c r="C7" t="n">
-        <v>16.34380115267483</v>
+        <v>25.95719512</v>
       </c>
       <c r="D7" t="n">
         <v>19.83294950938608</v>
@@ -857,7 +857,7 @@
         <v>35.98636538928577</v>
       </c>
       <c r="F7" t="n">
-        <v>2.906218380459594</v>
+        <v>2.96526779</v>
       </c>
       <c r="G7" t="n">
         <v>2.539966576180345</v>
@@ -866,7 +866,7 @@
         <v>5.185802648571439</v>
       </c>
       <c r="I7" t="n">
-        <v>1.366865182480997</v>
+        <v>1.58954996</v>
       </c>
       <c r="J7" t="n">
         <v>1.514808270736872</v>
@@ -875,7 +875,7 @@
         <v>1.273649660272731</v>
       </c>
       <c r="L7" t="n">
-        <v>2.746811850785143</v>
+        <v>4.06737169</v>
       </c>
       <c r="M7" t="n">
         <v>2.880513464578431</v>
@@ -884,7 +884,7 @@
         <v>5.304204439897035</v>
       </c>
       <c r="O7" t="n">
-        <v>11.29838293252447</v>
+        <v>12.039497385</v>
       </c>
       <c r="P7" t="n">
         <v>11.56552177093622</v>
@@ -893,7 +893,7 @@
         <v>13.19581088663631</v>
       </c>
       <c r="R7" t="n">
-        <v>14.65001212812171</v>
+        <v>15.25076795</v>
       </c>
       <c r="S7" t="n">
         <v>14.27795707036525</v>
@@ -910,7 +910,7 @@
         <v>2030</v>
       </c>
       <c r="C8" t="n">
-        <v>15.83258899145334</v>
+        <v>25.95719512</v>
       </c>
       <c r="D8" t="n">
         <v>19.83283867076231</v>
@@ -919,7 +919,7 @@
         <v>37.72523681857137</v>
       </c>
       <c r="F8" t="n">
-        <v>2.996492031550912</v>
+        <v>2.96526779</v>
       </c>
       <c r="G8" t="n">
         <v>2.539933975452329</v>
@@ -928,7 +928,7 @@
         <v>5.470070950000036</v>
       </c>
       <c r="I8" t="n">
-        <v>1.458345335686806</v>
+        <v>1.58954996</v>
       </c>
       <c r="J8" t="n">
         <v>1.514749587414202</v>
@@ -937,7 +937,7 @@
         <v>1.252892447818184</v>
       </c>
       <c r="L8" t="n">
-        <v>2.663560054027886</v>
+        <v>4.06737169</v>
       </c>
       <c r="M8" t="n">
         <v>2.830379573118299</v>
@@ -946,7 +946,7 @@
         <v>5.537158261926493</v>
       </c>
       <c r="O8" t="n">
-        <v>10.85693521511861</v>
+        <v>12.039497385</v>
       </c>
       <c r="P8" t="n">
         <v>11.55186844199165</v>
@@ -955,7 +955,7 @@
         <v>13.38214015145451</v>
       </c>
       <c r="R8" t="n">
-        <v>14.39481107671121</v>
+        <v>15.25076795</v>
       </c>
       <c r="S8" t="n">
         <v>14.27816303117187</v>

--- a/data/Forecast (MtCO2e).xlsx
+++ b/data/Forecast (MtCO2e).xlsx
@@ -544,7 +544,7 @@
         <v>20.92355725079597</v>
       </c>
       <c r="E2" t="n">
-        <v>27.29200824285681</v>
+        <v>29.76745450119</v>
       </c>
       <c r="F2" t="n">
         <v>2.96526779</v>
@@ -553,7 +553,7 @@
         <v>2.704934933759235</v>
       </c>
       <c r="H2" t="n">
-        <v>3.764461141428569</v>
+        <v>2.90771924289</v>
       </c>
       <c r="I2" t="n">
         <v>1.58954996</v>
@@ -562,7 +562,7 @@
         <v>1.526786840197809</v>
       </c>
       <c r="K2" t="n">
-        <v>1.377435722545457</v>
+        <v>1.55597198148</v>
       </c>
       <c r="L2" t="n">
         <v>4.06737169</v>
@@ -571,7 +571,7 @@
         <v>3.789454502734576</v>
       </c>
       <c r="N2" t="n">
-        <v>4.139435329750029</v>
+        <v>4.03267918137</v>
       </c>
       <c r="O2" t="n">
         <v>12.039497385</v>
@@ -580,7 +580,7 @@
         <v>11.90716161462806</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.26416456254543</v>
+        <v>12.59338256295</v>
       </c>
       <c r="R2" t="n">
         <v>15.25076795</v>
@@ -589,7 +589,7 @@
         <v>14.73401299497481</v>
       </c>
       <c r="T2" t="n">
-        <v>14.93981678055556</v>
+        <v>14.75466640515</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         <v>20.26829209177487</v>
       </c>
       <c r="E3" t="n">
-        <v>29.03087967214287</v>
+        <v>29.37538063238</v>
       </c>
       <c r="F3" t="n">
         <v>2.96526779</v>
@@ -615,7 +615,7 @@
         <v>2.61768621408206</v>
       </c>
       <c r="H3" t="n">
-        <v>4.048729442857166</v>
+        <v>2.86942101578</v>
       </c>
       <c r="I3" t="n">
         <v>1.58954996</v>
@@ -624,7 +624,7 @@
         <v>1.522038761107034</v>
       </c>
       <c r="K3" t="n">
-        <v>1.356678510090909</v>
+        <v>1.53547792296</v>
       </c>
       <c r="L3" t="n">
         <v>4.06737169</v>
@@ -633,7 +633,7 @@
         <v>3.541344375969714</v>
       </c>
       <c r="N3" t="n">
-        <v>4.37238915177943</v>
+        <v>3.97956385274</v>
       </c>
       <c r="O3" t="n">
         <v>12.039497385</v>
@@ -642,7 +642,7 @@
         <v>11.87943608221425</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.45049382736363</v>
+        <v>12.4275122759</v>
       </c>
       <c r="R3" t="n">
         <v>15.25076795</v>
@@ -651,7 +651,7 @@
         <v>14.45871322888302</v>
       </c>
       <c r="T3" t="n">
-        <v>15.00793762955556</v>
+        <v>14.5603293603</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         <v>19.944908636835</v>
       </c>
       <c r="E4" t="n">
-        <v>30.76975110142848</v>
+        <v>28.98330676357</v>
       </c>
       <c r="F4" t="n">
         <v>2.96526779</v>
@@ -677,7 +677,7 @@
         <v>2.564327813550465</v>
       </c>
       <c r="H4" t="n">
-        <v>4.332997744285763</v>
+        <v>2.83112278867</v>
       </c>
       <c r="I4" t="n">
         <v>1.58954996</v>
@@ -686,7 +686,7 @@
         <v>1.51799653067943</v>
       </c>
       <c r="K4" t="n">
-        <v>1.335921297636368</v>
+        <v>1.51498386444</v>
       </c>
       <c r="L4" t="n">
         <v>4.06737169</v>
@@ -695,7 +695,7 @@
         <v>3.301737580393696</v>
       </c>
       <c r="N4" t="n">
-        <v>4.605342973808831</v>
+        <v>3.92644852411</v>
       </c>
       <c r="O4" t="n">
         <v>12.039497385</v>
@@ -704,7 +704,7 @@
         <v>11.77646804595039</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.63682309218177</v>
+        <v>12.26164198885</v>
       </c>
       <c r="R4" t="n">
         <v>15.25076795</v>
@@ -713,7 +713,7 @@
         <v>14.32460317034748</v>
       </c>
       <c r="T4" t="n">
-        <v>15.07605847855555</v>
+        <v>14.36599231545</v>
       </c>
     </row>
     <row r="5">
@@ -730,7 +730,7 @@
         <v>19.85106849898576</v>
       </c>
       <c r="E5" t="n">
-        <v>32.50862253071409</v>
+        <v>28.59123289476</v>
       </c>
       <c r="F5" t="n">
         <v>2.96526779</v>
@@ -739,7 +739,7 @@
         <v>2.544528740240489</v>
       </c>
       <c r="H5" t="n">
-        <v>4.617266045714359</v>
+        <v>2.79282456156</v>
       </c>
       <c r="I5" t="n">
         <v>1.58954996</v>
@@ -748,7 +748,7 @@
         <v>1.515874394559051</v>
       </c>
       <c r="K5" t="n">
-        <v>1.31516408518182</v>
+        <v>1.49448980592</v>
       </c>
       <c r="L5" t="n">
         <v>4.06737169</v>
@@ -757,7 +757,7 @@
         <v>3.106886126734189</v>
       </c>
       <c r="N5" t="n">
-        <v>4.838296795838232</v>
+        <v>3.873333195479999</v>
       </c>
       <c r="O5" t="n">
         <v>12.039497385</v>
@@ -766,7 +766,7 @@
         <v>11.67136158998939</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.82315235699997</v>
+        <v>12.0957717018</v>
       </c>
       <c r="R5" t="n">
         <v>15.25076795</v>
@@ -775,7 +775,7 @@
         <v>14.28467862103926</v>
       </c>
       <c r="T5" t="n">
-        <v>15.14417932755555</v>
+        <v>14.1716552706</v>
       </c>
     </row>
     <row r="6">
@@ -792,7 +792,7 @@
         <v>19.83468094473227</v>
       </c>
       <c r="E6" t="n">
-        <v>34.2474939599997</v>
+        <v>28.19915902595</v>
       </c>
       <c r="F6" t="n">
         <v>2.96526779</v>
@@ -801,7 +801,7 @@
         <v>2.540444920765542</v>
       </c>
       <c r="H6" t="n">
-        <v>4.901534347142842</v>
+        <v>2.75452633445</v>
       </c>
       <c r="I6" t="n">
         <v>1.58954996</v>
@@ -810,7 +810,7 @@
         <v>1.515054366124693</v>
       </c>
       <c r="K6" t="n">
-        <v>1.294406872727272</v>
+        <v>1.4739957474</v>
       </c>
       <c r="L6" t="n">
         <v>4.06737169</v>
@@ -819,7 +819,7 @@
         <v>2.968324397539059</v>
       </c>
       <c r="N6" t="n">
-        <v>5.071250617867634</v>
+        <v>3.820217866849999</v>
       </c>
       <c r="O6" t="n">
         <v>12.039497385</v>
@@ -828,7 +828,7 @@
         <v>11.60077717752098</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.00948162181817</v>
+        <v>11.92990141475</v>
       </c>
       <c r="R6" t="n">
         <v>15.25076795</v>
@@ -837,7 +837,7 @@
         <v>14.27810037595012</v>
       </c>
       <c r="T6" t="n">
-        <v>15.21230017655554</v>
+        <v>13.97731822575</v>
       </c>
     </row>
     <row r="7">
@@ -854,7 +854,7 @@
         <v>19.83294950938608</v>
       </c>
       <c r="E7" t="n">
-        <v>35.98636538928577</v>
+        <v>27.80708515714</v>
       </c>
       <c r="F7" t="n">
         <v>2.96526779</v>
@@ -863,7 +863,7 @@
         <v>2.539966576180345</v>
       </c>
       <c r="H7" t="n">
-        <v>5.185802648571439</v>
+        <v>2.71622810734</v>
       </c>
       <c r="I7" t="n">
         <v>1.58954996</v>
@@ -872,7 +872,7 @@
         <v>1.514808270736872</v>
       </c>
       <c r="K7" t="n">
-        <v>1.273649660272731</v>
+        <v>1.45350168888</v>
       </c>
       <c r="L7" t="n">
         <v>4.06737169</v>
@@ -881,7 +881,7 @@
         <v>2.880513464578431</v>
       </c>
       <c r="N7" t="n">
-        <v>5.304204439897035</v>
+        <v>3.76710253822</v>
       </c>
       <c r="O7" t="n">
         <v>12.039497385</v>
@@ -890,7 +890,7 @@
         <v>11.56552177093622</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.19581088663631</v>
+        <v>11.7640311277</v>
       </c>
       <c r="R7" t="n">
         <v>15.25076795</v>
@@ -899,7 +899,7 @@
         <v>14.27795707036525</v>
       </c>
       <c r="T7" t="n">
-        <v>15.28042102555554</v>
+        <v>13.7829811809</v>
       </c>
     </row>
     <row r="8">
@@ -916,7 +916,7 @@
         <v>19.83283867076231</v>
       </c>
       <c r="E8" t="n">
-        <v>37.72523681857137</v>
+        <v>27.41501128833</v>
       </c>
       <c r="F8" t="n">
         <v>2.96526779</v>
@@ -925,7 +925,7 @@
         <v>2.539933975452329</v>
       </c>
       <c r="H8" t="n">
-        <v>5.470070950000036</v>
+        <v>2.67792988023</v>
       </c>
       <c r="I8" t="n">
         <v>1.58954996</v>
@@ -934,7 +934,7 @@
         <v>1.514749587414202</v>
       </c>
       <c r="K8" t="n">
-        <v>1.252892447818184</v>
+        <v>1.43300763036</v>
       </c>
       <c r="L8" t="n">
         <v>4.06737169</v>
@@ -943,7 +943,7 @@
         <v>2.830379573118299</v>
       </c>
       <c r="N8" t="n">
-        <v>5.537158261926493</v>
+        <v>3.71398720959</v>
       </c>
       <c r="O8" t="n">
         <v>12.039497385</v>
@@ -952,7 +952,7 @@
         <v>11.55186844199165</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.38214015145451</v>
+        <v>11.59816084065</v>
       </c>
       <c r="R8" t="n">
         <v>15.25076795</v>
@@ -961,7 +961,7 @@
         <v>14.27816303117187</v>
       </c>
       <c r="T8" t="n">
-        <v>15.34854187455556</v>
+        <v>13.58864413605</v>
       </c>
     </row>
   </sheetData>

--- a/data/Forecast (MtCO2e).xlsx
+++ b/data/Forecast (MtCO2e).xlsx
@@ -441,92 +441,92 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ArcelorMittal - Moving Average</t>
+          <t>ArcelorMittal - BAU</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ArcelorMittal - SVR</t>
+          <t>ArcelorMittal - DBM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ArcelorMittal - Linear</t>
+          <t>ArcelorMittal - GBM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CBA - Moving Average</t>
+          <t>Votorantim - BAU</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CBA - SVR</t>
+          <t>Votorantim - DBM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CBA - Linear</t>
+          <t>Votorantim - GBM</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Intercement - Moving Average</t>
+          <t>Ternium - BAU</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Intercement - SVR</t>
+          <t>Ternium - DBM</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Intercement - Linear</t>
+          <t>Ternium - GBM</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Suzano - Moving Average</t>
+          <t>Suzano - BAU</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Suzano - SVR</t>
+          <t>Suzano - DBM</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Suzano - Linear</t>
+          <t>Suzano - GBM</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Ternium Brasil - Moving Average</t>
+          <t>CBA - BAU</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Ternium Brasil - SVR</t>
+          <t>CBA - DBM</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Ternium Brasil - Linear</t>
+          <t>CBA - GBM</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Votorantim - Moving Average</t>
+          <t>Intercement - BAU</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Votorantim - SVR</t>
+          <t>Intercement - DBM</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Votorantim - Linear</t>
+          <t>Intercement - GBM</t>
         </is>
       </c>
     </row>
@@ -538,58 +538,58 @@
         <v>2024</v>
       </c>
       <c r="C2" t="n">
-        <v>25.95719512</v>
+        <v>30.15952837</v>
       </c>
       <c r="D2" t="n">
         <v>20.92355725079597</v>
       </c>
       <c r="E2" t="n">
-        <v>29.76745450119</v>
+        <v>29.75591545971603</v>
       </c>
       <c r="F2" t="n">
-        <v>2.96526779</v>
+        <v>14.94900345</v>
       </c>
       <c r="G2" t="n">
-        <v>2.704934933759235</v>
+        <v>14.73401299497481</v>
       </c>
       <c r="H2" t="n">
-        <v>2.90771924289</v>
+        <v>14.74894691349589</v>
       </c>
       <c r="I2" t="n">
-        <v>1.58954996</v>
+        <v>12.75925285</v>
       </c>
       <c r="J2" t="n">
-        <v>1.526786840197809</v>
+        <v>11.90716161462806</v>
       </c>
       <c r="K2" t="n">
-        <v>1.55597198148</v>
+        <v>12.58850087030525</v>
       </c>
       <c r="L2" t="n">
-        <v>4.06737169</v>
+        <v>4.085794509999999</v>
       </c>
       <c r="M2" t="n">
         <v>3.789454502734576</v>
       </c>
       <c r="N2" t="n">
-        <v>4.03267918137</v>
+        <v>4.031115955588528</v>
       </c>
       <c r="O2" t="n">
-        <v>12.039497385</v>
+        <v>2.94601747</v>
       </c>
       <c r="P2" t="n">
-        <v>11.90716161462806</v>
+        <v>2.705336272448961</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.59338256295</v>
+        <v>2.906592096027744</v>
       </c>
       <c r="R2" t="n">
-        <v>15.25076795</v>
+        <v>1.57646604</v>
       </c>
       <c r="S2" t="n">
-        <v>14.73401299497481</v>
+        <v>1.526786840197809</v>
       </c>
       <c r="T2" t="n">
-        <v>14.75466640515</v>
+        <v>1.555368825263673</v>
       </c>
     </row>
     <row r="3">
@@ -600,58 +600,58 @@
         <v>2025</v>
       </c>
       <c r="C3" t="n">
-        <v>25.95719512</v>
+        <v>30.15952837</v>
       </c>
       <c r="D3" t="n">
         <v>20.26829209177487</v>
       </c>
       <c r="E3" t="n">
-        <v>29.37538063238</v>
+        <v>29.35770393964445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.96526779</v>
+        <v>14.94900345</v>
       </c>
       <c r="G3" t="n">
-        <v>2.61768621408206</v>
+        <v>14.45871322888302</v>
       </c>
       <c r="H3" t="n">
-        <v>2.86942101578</v>
+        <v>14.55156765363647</v>
       </c>
       <c r="I3" t="n">
-        <v>1.58954996</v>
+        <v>12.75925285</v>
       </c>
       <c r="J3" t="n">
-        <v>1.522038761107034</v>
+        <v>11.87943608221425</v>
       </c>
       <c r="K3" t="n">
-        <v>1.53547792296</v>
+        <v>12.42003399608748</v>
       </c>
       <c r="L3" t="n">
-        <v>4.06737169</v>
+        <v>4.085794509999999</v>
       </c>
       <c r="M3" t="n">
         <v>3.541344375969714</v>
       </c>
       <c r="N3" t="n">
-        <v>3.97956385274</v>
+        <v>3.977169142410056</v>
       </c>
       <c r="O3" t="n">
-        <v>12.039497385</v>
+        <v>2.94601747</v>
       </c>
       <c r="P3" t="n">
-        <v>11.87943608221425</v>
+        <v>2.617963414771562</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.4275122759</v>
+        <v>2.867694336072948</v>
       </c>
       <c r="R3" t="n">
-        <v>15.25076795</v>
+        <v>1.57646604</v>
       </c>
       <c r="S3" t="n">
-        <v>14.45871322888302</v>
+        <v>1.522038761107034</v>
       </c>
       <c r="T3" t="n">
-        <v>14.5603293603</v>
+        <v>1.534553946117417</v>
       </c>
     </row>
     <row r="4">
@@ -662,58 +662,58 @@
         <v>2026</v>
       </c>
       <c r="C4" t="n">
-        <v>25.95719512</v>
+        <v>30.15952837</v>
       </c>
       <c r="D4" t="n">
         <v>19.944908636835</v>
       </c>
       <c r="E4" t="n">
-        <v>28.98330676357</v>
+        <v>28.96482152513954</v>
       </c>
       <c r="F4" t="n">
-        <v>2.96526779</v>
+        <v>14.94900345</v>
       </c>
       <c r="G4" t="n">
-        <v>2.564327813550465</v>
+        <v>14.32460317034748</v>
       </c>
       <c r="H4" t="n">
-        <v>2.83112278867</v>
+        <v>14.35682984149878</v>
       </c>
       <c r="I4" t="n">
-        <v>1.58954996</v>
+        <v>12.75925285</v>
       </c>
       <c r="J4" t="n">
-        <v>1.51799653067943</v>
+        <v>11.77646804595039</v>
       </c>
       <c r="K4" t="n">
-        <v>1.51498386444</v>
+        <v>12.25382164669367</v>
       </c>
       <c r="L4" t="n">
-        <v>4.06737169</v>
+        <v>4.085794509999999</v>
       </c>
       <c r="M4" t="n">
         <v>3.301737580393696</v>
       </c>
       <c r="N4" t="n">
-        <v>3.92644852411</v>
+        <v>3.923944277864214</v>
       </c>
       <c r="O4" t="n">
-        <v>12.039497385</v>
+        <v>2.94601747</v>
       </c>
       <c r="P4" t="n">
-        <v>11.77646804595039</v>
+        <v>2.564448703876882</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.26164198885</v>
+        <v>2.829317129288157</v>
       </c>
       <c r="R4" t="n">
-        <v>15.25076795</v>
+        <v>1.57646604</v>
       </c>
       <c r="S4" t="n">
-        <v>14.32460317034748</v>
+        <v>1.51799653067943</v>
       </c>
       <c r="T4" t="n">
-        <v>14.36599231545</v>
+        <v>1.514017624176909</v>
       </c>
     </row>
     <row r="5">
@@ -724,58 +724,58 @@
         <v>2027</v>
       </c>
       <c r="C5" t="n">
-        <v>25.95719512</v>
+        <v>30.15952837</v>
       </c>
       <c r="D5" t="n">
         <v>19.85106849898576</v>
       </c>
       <c r="E5" t="n">
-        <v>28.59123289476</v>
+        <v>28.57719689891209</v>
       </c>
       <c r="F5" t="n">
-        <v>2.96526779</v>
+        <v>14.94900345</v>
       </c>
       <c r="G5" t="n">
-        <v>2.544528740240489</v>
+        <v>14.28467862103926</v>
       </c>
       <c r="H5" t="n">
-        <v>2.79282456156</v>
+        <v>14.16469812764403</v>
       </c>
       <c r="I5" t="n">
-        <v>1.58954996</v>
+        <v>12.75925285</v>
       </c>
       <c r="J5" t="n">
-        <v>1.515874394559051</v>
+        <v>11.67136158998939</v>
       </c>
       <c r="K5" t="n">
-        <v>1.49448980592</v>
+        <v>12.08983365071949</v>
       </c>
       <c r="L5" t="n">
-        <v>4.06737169</v>
+        <v>4.085794509999999</v>
       </c>
       <c r="M5" t="n">
         <v>3.106886126734189</v>
       </c>
       <c r="N5" t="n">
-        <v>3.873333195479999</v>
+        <v>3.87143170040109</v>
       </c>
       <c r="O5" t="n">
-        <v>12.039497385</v>
+        <v>2.94601747</v>
       </c>
       <c r="P5" t="n">
-        <v>11.67136158998939</v>
+        <v>2.544585548876867</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.0957717018</v>
+        <v>2.791453509318417</v>
       </c>
       <c r="R5" t="n">
-        <v>15.25076795</v>
+        <v>1.57646604</v>
       </c>
       <c r="S5" t="n">
-        <v>14.28467862103926</v>
+        <v>1.515874394559051</v>
       </c>
       <c r="T5" t="n">
-        <v>14.1716552706</v>
+        <v>1.493756131622433</v>
       </c>
     </row>
     <row r="6">
@@ -786,58 +786,58 @@
         <v>2028</v>
       </c>
       <c r="C6" t="n">
-        <v>25.95719512</v>
+        <v>30.15952837</v>
       </c>
       <c r="D6" t="n">
         <v>19.83468094473227</v>
       </c>
       <c r="E6" t="n">
-        <v>28.19915902595</v>
+        <v>28.19475969808368</v>
       </c>
       <c r="F6" t="n">
-        <v>2.96526779</v>
+        <v>14.94900345</v>
       </c>
       <c r="G6" t="n">
-        <v>2.540444920765542</v>
+        <v>14.27810037595012</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75452633445</v>
+        <v>13.97513763570083</v>
       </c>
       <c r="I6" t="n">
-        <v>1.58954996</v>
+        <v>12.75925285</v>
       </c>
       <c r="J6" t="n">
-        <v>1.515054366124693</v>
+        <v>11.60077717752098</v>
       </c>
       <c r="K6" t="n">
-        <v>1.4739957474</v>
+        <v>11.92804024053243</v>
       </c>
       <c r="L6" t="n">
-        <v>4.06737169</v>
+        <v>4.085794509999999</v>
       </c>
       <c r="M6" t="n">
         <v>2.968324397539059</v>
       </c>
       <c r="N6" t="n">
-        <v>3.820217866849999</v>
+        <v>3.819621877767432</v>
       </c>
       <c r="O6" t="n">
-        <v>12.039497385</v>
+        <v>2.94601747</v>
       </c>
       <c r="P6" t="n">
-        <v>11.60077717752098</v>
+        <v>2.540488415467415</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.92990141475</v>
+        <v>2.754096603036715</v>
       </c>
       <c r="R6" t="n">
-        <v>15.25076795</v>
+        <v>1.57646604</v>
       </c>
       <c r="S6" t="n">
-        <v>14.27810037595012</v>
+        <v>1.515054366124693</v>
       </c>
       <c r="T6" t="n">
-        <v>13.97731822575</v>
+        <v>1.473765790522194</v>
       </c>
     </row>
     <row r="7">
@@ -848,58 +848,58 @@
         <v>2029</v>
       </c>
       <c r="C7" t="n">
-        <v>25.95719512</v>
+        <v>30.15952837</v>
       </c>
       <c r="D7" t="n">
         <v>19.83294950938608</v>
       </c>
       <c r="E7" t="n">
-        <v>27.80708515714</v>
+        <v>27.81744050141414</v>
       </c>
       <c r="F7" t="n">
-        <v>2.96526779</v>
+        <v>14.94900345</v>
       </c>
       <c r="G7" t="n">
-        <v>2.539966576180345</v>
+        <v>14.27795707036524</v>
       </c>
       <c r="H7" t="n">
-        <v>2.71622810734</v>
+        <v>13.78811395603431</v>
       </c>
       <c r="I7" t="n">
-        <v>1.58954996</v>
+        <v>12.75925285</v>
       </c>
       <c r="J7" t="n">
-        <v>1.514808270736872</v>
+        <v>11.56552177093622</v>
       </c>
       <c r="K7" t="n">
-        <v>1.45350168888</v>
+        <v>11.76841204686828</v>
       </c>
       <c r="L7" t="n">
-        <v>4.06737169</v>
+        <v>4.085794509999999</v>
       </c>
       <c r="M7" t="n">
         <v>2.880513464578431</v>
       </c>
       <c r="N7" t="n">
-        <v>3.76710253822</v>
+        <v>3.768505405276319</v>
       </c>
       <c r="O7" t="n">
-        <v>12.039497385</v>
+        <v>2.94601747</v>
       </c>
       <c r="P7" t="n">
-        <v>11.56552177093622</v>
+        <v>2.540008522880932</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.7640311277</v>
+        <v>2.717239629296352</v>
       </c>
       <c r="R7" t="n">
-        <v>15.25076795</v>
+        <v>1.57646604</v>
       </c>
       <c r="S7" t="n">
-        <v>14.27795707036525</v>
+        <v>1.514808270736872</v>
       </c>
       <c r="T7" t="n">
-        <v>13.7829811809</v>
+        <v>1.454042972164686</v>
       </c>
     </row>
     <row r="8">
@@ -910,58 +910,58 @@
         <v>2030</v>
       </c>
       <c r="C8" t="n">
-        <v>25.95719512</v>
+        <v>30.15952837</v>
       </c>
       <c r="D8" t="n">
         <v>19.83283867076231</v>
       </c>
       <c r="E8" t="n">
-        <v>27.41501128833</v>
+        <v>27.4451708167</v>
       </c>
       <c r="F8" t="n">
-        <v>2.96526779</v>
+        <v>14.94900345</v>
       </c>
       <c r="G8" t="n">
-        <v>2.539933975452329</v>
+        <v>14.27816303117187</v>
       </c>
       <c r="H8" t="n">
-        <v>2.67792988023</v>
+        <v>13.6035931395</v>
       </c>
       <c r="I8" t="n">
-        <v>1.58954996</v>
+        <v>12.75925285</v>
       </c>
       <c r="J8" t="n">
-        <v>1.514749587414202</v>
+        <v>11.55186844199165</v>
       </c>
       <c r="K8" t="n">
-        <v>1.43300763036</v>
+        <v>11.6109200935</v>
       </c>
       <c r="L8" t="n">
-        <v>4.06737169</v>
+        <v>4.085794509999999</v>
       </c>
       <c r="M8" t="n">
         <v>2.830379573118299</v>
       </c>
       <c r="N8" t="n">
-        <v>3.71398720959</v>
+        <v>3.7180730041</v>
       </c>
       <c r="O8" t="n">
-        <v>12.039497385</v>
+        <v>2.94601747</v>
       </c>
       <c r="P8" t="n">
-        <v>11.55186844199165</v>
+        <v>2.539975817454006</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.59816084065</v>
+        <v>2.6808758977</v>
       </c>
       <c r="R8" t="n">
-        <v>15.25076795</v>
+        <v>1.57646604</v>
       </c>
       <c r="S8" t="n">
-        <v>14.27816303117187</v>
+        <v>1.514749587414202</v>
       </c>
       <c r="T8" t="n">
-        <v>13.58864413605</v>
+        <v>1.4345840964</v>
       </c>
     </row>
   </sheetData>

--- a/data/Forecast (MtCO2e).xlsx
+++ b/data/Forecast (MtCO2e).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,92 +441,92 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ArcelorMittal - BAU</t>
+          <t>A-1 - BAU</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ArcelorMittal - DBM</t>
+          <t>A-1 - DBM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ArcelorMittal - GBM</t>
+          <t>A-1 - GBM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Votorantim - BAU</t>
+          <t>C-1 - BAU</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Votorantim - DBM</t>
+          <t>C-1 - DBM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Votorantim - GBM</t>
+          <t>C-1 - GBM</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Ternium - BAU</t>
+          <t>C-2 - BAU</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ternium - DBM</t>
+          <t>C-2 - DBM</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Ternium - GBM</t>
+          <t>C-2 - GBM</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Suzano - BAU</t>
+          <t>P-1 - BAU</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Suzano - DBM</t>
+          <t>P-1 - DBM</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Suzano - GBM</t>
+          <t>P-1 - GBM</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>CBA - BAU</t>
+          <t>S-1 - BAU</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>CBA - DBM</t>
+          <t>S-1 - DBM</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>CBA - GBM</t>
+          <t>S-1 - GBM</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Intercement - BAU</t>
+          <t>S-2 - BAU</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Intercement - DBM</t>
+          <t>S-2 - DBM</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Intercement - GBM</t>
+          <t>S-2 - GBM</t>
         </is>
       </c>
     </row>
@@ -535,61 +535,61 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C2" t="n">
-        <v>30.15952837</v>
+        <v>1.341908</v>
       </c>
       <c r="D2" t="n">
-        <v>20.92355725079597</v>
+        <v>1.252184658665981</v>
       </c>
       <c r="E2" t="n">
-        <v>29.75591545971603</v>
+        <v>1.320980197941484</v>
       </c>
       <c r="F2" t="n">
-        <v>14.94900345</v>
+        <v>1.57930603</v>
       </c>
       <c r="G2" t="n">
-        <v>14.73401299497481</v>
+        <v>1.519019850666217</v>
       </c>
       <c r="H2" t="n">
-        <v>14.74894691349589</v>
+        <v>1.554675873546904</v>
       </c>
       <c r="I2" t="n">
-        <v>12.75925285</v>
+        <v>13.51342822</v>
       </c>
       <c r="J2" t="n">
-        <v>11.90716161462806</v>
+        <v>13.34097468148977</v>
       </c>
       <c r="K2" t="n">
-        <v>12.58850087030525</v>
+        <v>13.30267878641728</v>
       </c>
       <c r="L2" t="n">
-        <v>4.085794509999999</v>
+        <v>2.28398765</v>
       </c>
       <c r="M2" t="n">
-        <v>3.789454502734576</v>
+        <v>2.074743225780077</v>
       </c>
       <c r="N2" t="n">
-        <v>4.031115955588528</v>
+        <v>2.248367591513654</v>
       </c>
       <c r="O2" t="n">
-        <v>2.94601747</v>
+        <v>23.63286533</v>
       </c>
       <c r="P2" t="n">
-        <v>2.705336272448961</v>
+        <v>18.06026072397819</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.906592096027744</v>
+        <v>23.26429764301862</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57646604</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="S2" t="n">
-        <v>1.526786840197809</v>
+        <v>9.801580517232598</v>
       </c>
       <c r="T2" t="n">
-        <v>1.555368825263673</v>
+        <v>8.801083716781038</v>
       </c>
     </row>
     <row r="3">
@@ -597,61 +597,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C3" t="n">
-        <v>30.15952837</v>
+        <v>1.341908</v>
       </c>
       <c r="D3" t="n">
-        <v>20.26829209177487</v>
+        <v>1.242492403356769</v>
       </c>
       <c r="E3" t="n">
-        <v>29.35770393964445</v>
+        <v>1.300378776602809</v>
       </c>
       <c r="F3" t="n">
-        <v>14.94900345</v>
+        <v>1.57930603</v>
       </c>
       <c r="G3" t="n">
-        <v>14.45871322888302</v>
+        <v>1.51973003296967</v>
       </c>
       <c r="H3" t="n">
-        <v>14.55156765363647</v>
+        <v>1.530429838090867</v>
       </c>
       <c r="I3" t="n">
-        <v>12.75925285</v>
+        <v>13.51342822</v>
       </c>
       <c r="J3" t="n">
-        <v>11.87943608221425</v>
+        <v>13.31789439806255</v>
       </c>
       <c r="K3" t="n">
-        <v>12.42003399608748</v>
+        <v>13.09521610753753</v>
       </c>
       <c r="L3" t="n">
-        <v>4.085794509999999</v>
+        <v>2.28398765</v>
       </c>
       <c r="M3" t="n">
-        <v>3.541344375969714</v>
+        <v>1.921092988970094</v>
       </c>
       <c r="N3" t="n">
-        <v>3.977169142410056</v>
+        <v>2.213303047662674</v>
       </c>
       <c r="O3" t="n">
-        <v>2.94601747</v>
+        <v>23.63286533</v>
       </c>
       <c r="P3" t="n">
-        <v>2.617963414771562</v>
+        <v>17.75677236092646</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.867694336072948</v>
+        <v>22.90147797423096</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57646604</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="S3" t="n">
-        <v>1.522038761107034</v>
+        <v>9.772826204364655</v>
       </c>
       <c r="T3" t="n">
-        <v>1.534553946117417</v>
+        <v>8.663825918239539</v>
       </c>
     </row>
     <row r="4">
@@ -659,61 +659,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C4" t="n">
-        <v>30.15952837</v>
+        <v>1.341908</v>
       </c>
       <c r="D4" t="n">
-        <v>19.944908636835</v>
+        <v>1.239475496514343</v>
       </c>
       <c r="E4" t="n">
-        <v>28.96482152513954</v>
+        <v>1.280098645895011</v>
       </c>
       <c r="F4" t="n">
-        <v>14.94900345</v>
+        <v>1.57930603</v>
       </c>
       <c r="G4" t="n">
-        <v>14.32460317034748</v>
+        <v>1.519924657480658</v>
       </c>
       <c r="H4" t="n">
-        <v>14.35682984149878</v>
+        <v>1.506561933051167</v>
       </c>
       <c r="I4" t="n">
-        <v>12.75925285</v>
+        <v>13.51342822</v>
       </c>
       <c r="J4" t="n">
-        <v>11.77646804595039</v>
+        <v>13.31761809348079</v>
       </c>
       <c r="K4" t="n">
-        <v>12.25382164669367</v>
+        <v>12.89098892459202</v>
       </c>
       <c r="L4" t="n">
-        <v>4.085794509999999</v>
+        <v>2.28398765</v>
       </c>
       <c r="M4" t="n">
-        <v>3.301737580393696</v>
+        <v>1.776351195750547</v>
       </c>
       <c r="N4" t="n">
-        <v>3.923944277864214</v>
+        <v>2.178785354887166</v>
       </c>
       <c r="O4" t="n">
-        <v>2.94601747</v>
+        <v>23.63286533</v>
       </c>
       <c r="P4" t="n">
-        <v>2.564448703876882</v>
+        <v>17.54063369508084</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.829317129288157</v>
+        <v>22.54431668009442</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57646604</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="S4" t="n">
-        <v>1.51799653067943</v>
+        <v>9.788235121203588</v>
       </c>
       <c r="T4" t="n">
-        <v>1.514017624176909</v>
+        <v>8.528708731452992</v>
       </c>
     </row>
     <row r="5">
@@ -721,61 +721,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C5" t="n">
-        <v>30.15952837</v>
+        <v>1.341908</v>
       </c>
       <c r="D5" t="n">
-        <v>19.85106849898576</v>
+        <v>1.238880071095579</v>
       </c>
       <c r="E5" t="n">
-        <v>28.57719689891209</v>
+        <v>1.260134795111898</v>
       </c>
       <c r="F5" t="n">
-        <v>14.94900345</v>
+        <v>1.57930603</v>
       </c>
       <c r="G5" t="n">
-        <v>14.28467862103926</v>
+        <v>1.519972279865771</v>
       </c>
       <c r="H5" t="n">
-        <v>14.16469812764403</v>
+        <v>1.483066261273526</v>
       </c>
       <c r="I5" t="n">
-        <v>12.75925285</v>
+        <v>13.51342822</v>
       </c>
       <c r="J5" t="n">
-        <v>11.67136158998939</v>
+        <v>13.31951880711756</v>
       </c>
       <c r="K5" t="n">
-        <v>12.08983365071949</v>
+        <v>12.68994677822104</v>
       </c>
       <c r="L5" t="n">
-        <v>4.085794509999999</v>
+        <v>2.28398765</v>
       </c>
       <c r="M5" t="n">
-        <v>3.106886126734189</v>
+        <v>1.657053206192781</v>
       </c>
       <c r="N5" t="n">
-        <v>3.87143170040109</v>
+        <v>2.144805984740276</v>
       </c>
       <c r="O5" t="n">
-        <v>2.94601747</v>
+        <v>23.63286533</v>
       </c>
       <c r="P5" t="n">
-        <v>2.544585548876867</v>
+        <v>17.44846866723403</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.791453509318417</v>
+        <v>22.19272551510731</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57646604</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="S5" t="n">
-        <v>1.515874394559051</v>
+        <v>9.823698499845452</v>
       </c>
       <c r="T5" t="n">
-        <v>1.493756131622433</v>
+        <v>8.395698772389787</v>
       </c>
     </row>
     <row r="6">
@@ -783,61 +783,61 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C6" t="n">
-        <v>30.15952837</v>
+        <v>1.341908</v>
       </c>
       <c r="D6" t="n">
-        <v>19.83468094473227</v>
+        <v>1.238802736244889</v>
       </c>
       <c r="E6" t="n">
-        <v>28.19475969808368</v>
+        <v>1.240482291692028</v>
       </c>
       <c r="F6" t="n">
-        <v>14.94900345</v>
+        <v>1.57930603</v>
       </c>
       <c r="G6" t="n">
-        <v>14.27810037595012</v>
+        <v>1.519982634666197</v>
       </c>
       <c r="H6" t="n">
-        <v>13.97513763570083</v>
+        <v>1.459937017573066</v>
       </c>
       <c r="I6" t="n">
-        <v>12.75925285</v>
+        <v>13.51342822</v>
       </c>
       <c r="J6" t="n">
-        <v>11.60077717752098</v>
+        <v>13.31937617878207</v>
       </c>
       <c r="K6" t="n">
-        <v>11.92804024053243</v>
+        <v>12.49203999600667</v>
       </c>
       <c r="L6" t="n">
-        <v>4.085794509999999</v>
+        <v>2.28398765</v>
       </c>
       <c r="M6" t="n">
-        <v>2.968324397539059</v>
+        <v>1.569027716121235</v>
       </c>
       <c r="N6" t="n">
-        <v>3.819621877767432</v>
+        <v>2.111356541781023</v>
       </c>
       <c r="O6" t="n">
-        <v>2.94601747</v>
+        <v>23.63286533</v>
       </c>
       <c r="P6" t="n">
-        <v>2.540488415467415</v>
+        <v>17.42302375334566</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.754096603036715</v>
+        <v>21.84661761000565</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57646604</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="S6" t="n">
-        <v>1.515054366124693</v>
+        <v>9.856964276615619</v>
       </c>
       <c r="T6" t="n">
-        <v>1.473765790522194</v>
+        <v>8.264763177660861</v>
       </c>
     </row>
     <row r="7">
@@ -845,123 +845,61 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C7" t="n">
-        <v>30.15952837</v>
+        <v>1.341908</v>
       </c>
       <c r="D7" t="n">
-        <v>19.83294950938608</v>
+        <v>1.238796014260476</v>
       </c>
       <c r="E7" t="n">
-        <v>27.81744050141414</v>
+        <v>1.22113628</v>
       </c>
       <c r="F7" t="n">
-        <v>14.94900345</v>
+        <v>1.57930603</v>
       </c>
       <c r="G7" t="n">
-        <v>14.27795707036524</v>
+        <v>1.519984614831255</v>
       </c>
       <c r="H7" t="n">
-        <v>13.78811395603431</v>
+        <v>1.4371684873</v>
       </c>
       <c r="I7" t="n">
-        <v>12.75925285</v>
+        <v>13.51342822</v>
       </c>
       <c r="J7" t="n">
-        <v>11.56552177093622</v>
+        <v>13.31868339085185</v>
       </c>
       <c r="K7" t="n">
-        <v>11.76841204686828</v>
+        <v>12.2972196802</v>
       </c>
       <c r="L7" t="n">
-        <v>4.085794509999999</v>
+        <v>2.28398765</v>
       </c>
       <c r="M7" t="n">
-        <v>2.880513464578431</v>
+        <v>1.510201066689185</v>
       </c>
       <c r="N7" t="n">
-        <v>3.768505405276319</v>
+        <v>2.0784287615</v>
       </c>
       <c r="O7" t="n">
-        <v>2.94601747</v>
+        <v>23.63286533</v>
       </c>
       <c r="P7" t="n">
-        <v>2.540008522880932</v>
+        <v>17.41834002766063</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.717239629296352</v>
+        <v>21.5059074503</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57646604</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="S7" t="n">
-        <v>1.514808270736872</v>
+        <v>9.878515706163213</v>
       </c>
       <c r="T7" t="n">
-        <v>1.454042972164686</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30.15952837</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19.83283867076231</v>
-      </c>
-      <c r="E8" t="n">
-        <v>27.4451708167</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14.94900345</v>
-      </c>
-      <c r="G8" t="n">
-        <v>14.27816303117187</v>
-      </c>
-      <c r="H8" t="n">
-        <v>13.6035931395</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.75925285</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.55186844199165</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.6109200935</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.085794509999999</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.830379573118299</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.7180730041</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.94601747</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.539975817454006</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6808758977</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.57646604</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.514749587414202</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.4345840964</v>
+        <v>8.135869596399999</v>
       </c>
     </row>
   </sheetData>

--- a/data/Forecast (MtCO2e).xlsx
+++ b/data/Forecast (MtCO2e).xlsx
@@ -562,7 +562,7 @@
         <v>13.34097468148977</v>
       </c>
       <c r="K2" t="n">
-        <v>13.30267878641728</v>
+        <v>13.30267878641727</v>
       </c>
       <c r="L2" t="n">
         <v>2.28398765</v>
@@ -589,7 +589,7 @@
         <v>9.801580517232598</v>
       </c>
       <c r="T2" t="n">
-        <v>8.801083716781038</v>
+        <v>8.801083716781037</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         <v>1.242492403356769</v>
       </c>
       <c r="E3" t="n">
-        <v>1.300378776602809</v>
+        <v>1.300378776602808</v>
       </c>
       <c r="F3" t="n">
         <v>1.57930603</v>
@@ -615,7 +615,7 @@
         <v>1.51973003296967</v>
       </c>
       <c r="H3" t="n">
-        <v>1.530429838090867</v>
+        <v>1.530429838090866</v>
       </c>
       <c r="I3" t="n">
         <v>13.51342822</v>
@@ -801,7 +801,7 @@
         <v>1.519982634666197</v>
       </c>
       <c r="H6" t="n">
-        <v>1.459937017573066</v>
+        <v>1.459937017573067</v>
       </c>
       <c r="I6" t="n">
         <v>13.51342822</v>
@@ -828,7 +828,7 @@
         <v>17.42302375334566</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.84661761000565</v>
+        <v>21.84661761000566</v>
       </c>
       <c r="R6" t="n">
         <v>8.940516039999999</v>
@@ -837,7 +837,7 @@
         <v>9.856964276615619</v>
       </c>
       <c r="T6" t="n">
-        <v>8.264763177660861</v>
+        <v>8.264763177660862</v>
       </c>
     </row>
     <row r="7">

--- a/data/Forecast (MtCO2e).xlsx
+++ b/data/Forecast (MtCO2e).xlsx
@@ -441,92 +441,92 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>S-1 - BAU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>S-1 - DBM</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>S-1 - GBM</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>C-2 - BAU</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>C-2 - DBM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>C-2 - GBM</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>S-2 - BAU</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S-2 - DBM</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>S-2 - GBM</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>P-1 - BAU</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>P-1 - DBM</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>P-1 - GBM</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>C-1 - BAU</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>C-1 - DBM</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>C-1 - GBM</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>A-1 - BAU</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>A-1 - DBM</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>A-1 - GBM</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C-1 - BAU</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C-1 - DBM</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C-1 - GBM</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>C-2 - BAU</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>C-2 - DBM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>C-2 - GBM</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>P-1 - BAU</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>P-1 - DBM</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>P-1 - GBM</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>S-1 - BAU</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>S-1 - DBM</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>S-1 - GBM</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>S-2 - BAU</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>S-2 - DBM</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>S-2 - GBM</t>
         </is>
       </c>
     </row>
@@ -538,31 +538,31 @@
         <v>2025</v>
       </c>
       <c r="C2" t="n">
-        <v>1.341908</v>
+        <v>23.63286533</v>
       </c>
       <c r="D2" t="n">
-        <v>1.252184658665981</v>
+        <v>18.06026072397819</v>
       </c>
       <c r="E2" t="n">
-        <v>1.320980197941484</v>
+        <v>23.26429764301862</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57930603</v>
+        <v>13.51342822</v>
       </c>
       <c r="G2" t="n">
-        <v>1.519019850666217</v>
+        <v>13.34097468148977</v>
       </c>
       <c r="H2" t="n">
-        <v>1.554675873546904</v>
+        <v>13.30267878641727</v>
       </c>
       <c r="I2" t="n">
-        <v>13.51342822</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="J2" t="n">
-        <v>13.34097468148977</v>
+        <v>9.801580517232598</v>
       </c>
       <c r="K2" t="n">
-        <v>13.30267878641727</v>
+        <v>8.801083716781037</v>
       </c>
       <c r="L2" t="n">
         <v>2.28398765</v>
@@ -574,22 +574,22 @@
         <v>2.248367591513654</v>
       </c>
       <c r="O2" t="n">
-        <v>23.63286533</v>
+        <v>1.57930603</v>
       </c>
       <c r="P2" t="n">
-        <v>18.06026072397819</v>
+        <v>1.519019850666217</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.26429764301862</v>
+        <v>1.554675873546904</v>
       </c>
       <c r="R2" t="n">
-        <v>8.940516039999999</v>
+        <v>1.341908</v>
       </c>
       <c r="S2" t="n">
-        <v>9.801580517232598</v>
+        <v>1.252184658665981</v>
       </c>
       <c r="T2" t="n">
-        <v>8.801083716781037</v>
+        <v>1.320980197941484</v>
       </c>
     </row>
     <row r="3">
@@ -600,31 +600,31 @@
         <v>2026</v>
       </c>
       <c r="C3" t="n">
-        <v>1.341908</v>
+        <v>23.63286533</v>
       </c>
       <c r="D3" t="n">
-        <v>1.242492403356769</v>
+        <v>17.75677236092646</v>
       </c>
       <c r="E3" t="n">
-        <v>1.300378776602808</v>
+        <v>22.90147797423096</v>
       </c>
       <c r="F3" t="n">
-        <v>1.57930603</v>
+        <v>13.51342822</v>
       </c>
       <c r="G3" t="n">
-        <v>1.51973003296967</v>
+        <v>13.31789439806255</v>
       </c>
       <c r="H3" t="n">
-        <v>1.530429838090866</v>
+        <v>13.09521610753753</v>
       </c>
       <c r="I3" t="n">
-        <v>13.51342822</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="J3" t="n">
-        <v>13.31789439806255</v>
+        <v>9.772826204364655</v>
       </c>
       <c r="K3" t="n">
-        <v>13.09521610753753</v>
+        <v>8.663825918239539</v>
       </c>
       <c r="L3" t="n">
         <v>2.28398765</v>
@@ -636,22 +636,22 @@
         <v>2.213303047662674</v>
       </c>
       <c r="O3" t="n">
-        <v>23.63286533</v>
+        <v>1.57930603</v>
       </c>
       <c r="P3" t="n">
-        <v>17.75677236092646</v>
+        <v>1.51973003296967</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.90147797423096</v>
+        <v>1.530429838090866</v>
       </c>
       <c r="R3" t="n">
-        <v>8.940516039999999</v>
+        <v>1.341908</v>
       </c>
       <c r="S3" t="n">
-        <v>9.772826204364655</v>
+        <v>1.242492403356769</v>
       </c>
       <c r="T3" t="n">
-        <v>8.663825918239539</v>
+        <v>1.300378776602808</v>
       </c>
     </row>
     <row r="4">
@@ -662,31 +662,31 @@
         <v>2027</v>
       </c>
       <c r="C4" t="n">
-        <v>1.341908</v>
+        <v>23.63286533</v>
       </c>
       <c r="D4" t="n">
-        <v>1.239475496514343</v>
+        <v>17.54063369508084</v>
       </c>
       <c r="E4" t="n">
-        <v>1.280098645895011</v>
+        <v>22.54431668009442</v>
       </c>
       <c r="F4" t="n">
-        <v>1.57930603</v>
+        <v>13.51342822</v>
       </c>
       <c r="G4" t="n">
-        <v>1.519924657480658</v>
+        <v>13.31761809348079</v>
       </c>
       <c r="H4" t="n">
-        <v>1.506561933051167</v>
+        <v>12.89098892459202</v>
       </c>
       <c r="I4" t="n">
-        <v>13.51342822</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="J4" t="n">
-        <v>13.31761809348079</v>
+        <v>9.788235121203588</v>
       </c>
       <c r="K4" t="n">
-        <v>12.89098892459202</v>
+        <v>8.528708731452992</v>
       </c>
       <c r="L4" t="n">
         <v>2.28398765</v>
@@ -698,22 +698,22 @@
         <v>2.178785354887166</v>
       </c>
       <c r="O4" t="n">
-        <v>23.63286533</v>
+        <v>1.57930603</v>
       </c>
       <c r="P4" t="n">
-        <v>17.54063369508084</v>
+        <v>1.519924657480658</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.54431668009442</v>
+        <v>1.506561933051167</v>
       </c>
       <c r="R4" t="n">
-        <v>8.940516039999999</v>
+        <v>1.341908</v>
       </c>
       <c r="S4" t="n">
-        <v>9.788235121203588</v>
+        <v>1.239475496514343</v>
       </c>
       <c r="T4" t="n">
-        <v>8.528708731452992</v>
+        <v>1.280098645895011</v>
       </c>
     </row>
     <row r="5">
@@ -724,31 +724,31 @@
         <v>2028</v>
       </c>
       <c r="C5" t="n">
-        <v>1.341908</v>
+        <v>23.63286533</v>
       </c>
       <c r="D5" t="n">
-        <v>1.238880071095579</v>
+        <v>17.44846866723403</v>
       </c>
       <c r="E5" t="n">
-        <v>1.260134795111898</v>
+        <v>22.19272551510731</v>
       </c>
       <c r="F5" t="n">
-        <v>1.57930603</v>
+        <v>13.51342822</v>
       </c>
       <c r="G5" t="n">
-        <v>1.519972279865771</v>
+        <v>13.31951880711756</v>
       </c>
       <c r="H5" t="n">
-        <v>1.483066261273526</v>
+        <v>12.68994677822104</v>
       </c>
       <c r="I5" t="n">
-        <v>13.51342822</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="J5" t="n">
-        <v>13.31951880711756</v>
+        <v>9.823698499845452</v>
       </c>
       <c r="K5" t="n">
-        <v>12.68994677822104</v>
+        <v>8.395698772389787</v>
       </c>
       <c r="L5" t="n">
         <v>2.28398765</v>
@@ -760,22 +760,22 @@
         <v>2.144805984740276</v>
       </c>
       <c r="O5" t="n">
-        <v>23.63286533</v>
+        <v>1.57930603</v>
       </c>
       <c r="P5" t="n">
-        <v>17.44846866723403</v>
+        <v>1.519972279865771</v>
       </c>
       <c r="Q5" t="n">
-        <v>22.19272551510731</v>
+        <v>1.483066261273526</v>
       </c>
       <c r="R5" t="n">
-        <v>8.940516039999999</v>
+        <v>1.341908</v>
       </c>
       <c r="S5" t="n">
-        <v>9.823698499845452</v>
+        <v>1.238880071095579</v>
       </c>
       <c r="T5" t="n">
-        <v>8.395698772389787</v>
+        <v>1.260134795111898</v>
       </c>
     </row>
     <row r="6">
@@ -786,31 +786,31 @@
         <v>2029</v>
       </c>
       <c r="C6" t="n">
-        <v>1.341908</v>
+        <v>23.63286533</v>
       </c>
       <c r="D6" t="n">
-        <v>1.238802736244889</v>
+        <v>17.42302375334566</v>
       </c>
       <c r="E6" t="n">
-        <v>1.240482291692028</v>
+        <v>21.84661761000566</v>
       </c>
       <c r="F6" t="n">
-        <v>1.57930603</v>
+        <v>13.51342822</v>
       </c>
       <c r="G6" t="n">
-        <v>1.519982634666197</v>
+        <v>13.31937617878207</v>
       </c>
       <c r="H6" t="n">
-        <v>1.459937017573067</v>
+        <v>12.49203999600667</v>
       </c>
       <c r="I6" t="n">
-        <v>13.51342822</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="J6" t="n">
-        <v>13.31937617878207</v>
+        <v>9.856964276615619</v>
       </c>
       <c r="K6" t="n">
-        <v>12.49203999600667</v>
+        <v>8.264763177660862</v>
       </c>
       <c r="L6" t="n">
         <v>2.28398765</v>
@@ -822,22 +822,22 @@
         <v>2.111356541781023</v>
       </c>
       <c r="O6" t="n">
-        <v>23.63286533</v>
+        <v>1.57930603</v>
       </c>
       <c r="P6" t="n">
-        <v>17.42302375334566</v>
+        <v>1.519982634666197</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.84661761000566</v>
+        <v>1.459937017573067</v>
       </c>
       <c r="R6" t="n">
-        <v>8.940516039999999</v>
+        <v>1.341908</v>
       </c>
       <c r="S6" t="n">
-        <v>9.856964276615619</v>
+        <v>1.238802736244889</v>
       </c>
       <c r="T6" t="n">
-        <v>8.264763177660862</v>
+        <v>1.240482291692028</v>
       </c>
     </row>
     <row r="7">
@@ -848,31 +848,31 @@
         <v>2030</v>
       </c>
       <c r="C7" t="n">
-        <v>1.341908</v>
+        <v>23.63286533</v>
       </c>
       <c r="D7" t="n">
-        <v>1.238796014260476</v>
+        <v>17.41834002766063</v>
       </c>
       <c r="E7" t="n">
-        <v>1.22113628</v>
+        <v>21.5059074503</v>
       </c>
       <c r="F7" t="n">
-        <v>1.57930603</v>
+        <v>13.51342822</v>
       </c>
       <c r="G7" t="n">
-        <v>1.519984614831255</v>
+        <v>13.31868339085185</v>
       </c>
       <c r="H7" t="n">
-        <v>1.4371684873</v>
+        <v>12.2972196802</v>
       </c>
       <c r="I7" t="n">
-        <v>13.51342822</v>
+        <v>8.940516039999999</v>
       </c>
       <c r="J7" t="n">
-        <v>13.31868339085185</v>
+        <v>9.878515706163213</v>
       </c>
       <c r="K7" t="n">
-        <v>12.2972196802</v>
+        <v>8.135869596399999</v>
       </c>
       <c r="L7" t="n">
         <v>2.28398765</v>
@@ -884,22 +884,22 @@
         <v>2.0784287615</v>
       </c>
       <c r="O7" t="n">
-        <v>23.63286533</v>
+        <v>1.57930603</v>
       </c>
       <c r="P7" t="n">
-        <v>17.41834002766063</v>
+        <v>1.519984614831255</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.5059074503</v>
+        <v>1.4371684873</v>
       </c>
       <c r="R7" t="n">
-        <v>8.940516039999999</v>
+        <v>1.341908</v>
       </c>
       <c r="S7" t="n">
-        <v>9.878515706163213</v>
+        <v>1.238796014260476</v>
       </c>
       <c r="T7" t="n">
-        <v>8.135869596399999</v>
+        <v>1.22113628</v>
       </c>
     </row>
   </sheetData>
